--- a/Gerenciamento - TI/Backlog-Rodizio.xlsx
+++ b/Gerenciamento - TI/Backlog-Rodizio.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162678ED-ACB2-47F9-8BC8-DE61FC4D14C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB108F3-D90C-40C0-BF95-7773A20A4674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Rodizio" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BackLog!$B$3:$H$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BackLog!$B$3:$J$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Rodizio!$B$3:$E$9</definedName>
     <definedName name="DataDeInício">#REF!</definedName>
     <definedName name="InícioDaSemana">#REF!</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="151">
   <si>
     <t>Anotações</t>
   </si>
@@ -201,24 +201,12 @@
     <t>GitHub</t>
   </si>
   <si>
-    <t>Site Estatico Institucional</t>
-  </si>
-  <si>
-    <t>Diagrama de BD</t>
-  </si>
-  <si>
     <t>Tema Geral do Projeto</t>
   </si>
   <si>
     <t>Mini Projeto Individual (Console Kotlin)</t>
   </si>
   <si>
-    <t>Cliente Linux</t>
-  </si>
-  <si>
-    <t>Capturas de Dados (Python)</t>
-  </si>
-  <si>
     <t>Ferramenta de Gestão - Planner</t>
   </si>
   <si>
@@ -228,9 +216,6 @@
     <t>Inovação</t>
   </si>
   <si>
-    <t>Pesquisa de Campo</t>
-  </si>
-  <si>
     <t>Proto-Persona</t>
   </si>
   <si>
@@ -252,9 +237,6 @@
     <t>Concluido</t>
   </si>
   <si>
-    <t>Historias de Usuario</t>
-  </si>
-  <si>
     <t>Requisitos</t>
   </si>
   <si>
@@ -282,12 +264,6 @@
     <t>Construção das personas a partir das ideias e percepções da equipe. Definir a “persona” (perfil) dos usuários do sistema (2 personas).</t>
   </si>
   <si>
-    <t>Coletar dados utilizando a linguagem Python</t>
-  </si>
-  <si>
-    <t>Modelagem lógica do banco de dados</t>
-  </si>
-  <si>
     <t>Repositorio do projeto privado</t>
   </si>
   <si>
@@ -366,9 +342,6 @@
     <t>Pequisa presencial no cinema (Data: 19/08/2022)</t>
   </si>
   <si>
-    <t>SO da instancia</t>
-  </si>
-  <si>
     <t>Nuvem</t>
   </si>
   <si>
@@ -381,9 +354,6 @@
     <t>Gráficos com indicadores úteis</t>
   </si>
   <si>
-    <t>Envio de notificações utilizando Slack ou outra a validar com Cliente (Brandao)</t>
-  </si>
-  <si>
     <t>Abertura de chamado</t>
   </si>
   <si>
@@ -411,9 +381,6 @@
     <t>Dashboard</t>
   </si>
   <si>
-    <t>Notificações</t>
-  </si>
-  <si>
     <t xml:space="preserve">Abertura de chamado </t>
   </si>
   <si>
@@ -424,6 +391,102 @@
   </si>
   <si>
     <t>Log da Aplicação</t>
+  </si>
+  <si>
+    <t>Contexto + Justificativa do Projeto</t>
+  </si>
+  <si>
+    <t>Diagrama de Visão de Negocio</t>
+  </si>
+  <si>
+    <t>Backlog + Sprint no Planner</t>
+  </si>
+  <si>
+    <t>Modelagem de Dados Lógica - Versão 1</t>
+  </si>
+  <si>
+    <t>Entendimento do uso do Slack</t>
+  </si>
+  <si>
+    <t>Lista de Classificação de Requisitos</t>
+  </si>
+  <si>
+    <t>Armazenar a captura de dados em BD</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Captura de Dados</t>
+  </si>
+  <si>
+    <t>Modelagem de Dados</t>
+  </si>
+  <si>
+    <t>Backlog + Sprint</t>
+  </si>
+  <si>
+    <t>Client Linux</t>
+  </si>
+  <si>
+    <t>Instalado local com camada de segurança</t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>Site Estatico Institucional - Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contexto / Justificativa </t>
+  </si>
+  <si>
+    <t>Entrevista e Pesquisa sobre o negocio</t>
+  </si>
+  <si>
+    <t>Lean UX Mindmap</t>
+  </si>
+  <si>
+    <t>Capturar dados de maquina via Python e Informações do Sistema Operacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capturar os processadores virtuais </t>
+  </si>
+  <si>
+    <t>Discretizar em função do tempo via integral</t>
+  </si>
+  <si>
+    <t>Visão de Negocios do Projeto</t>
+  </si>
+  <si>
+    <t>Inovação do Projeto</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Atividade</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>Marise</t>
+  </si>
+  <si>
+    <t>Erika / Gustavo</t>
+  </si>
+  <si>
+    <t>Celia</t>
+  </si>
+  <si>
+    <t>Yoshi</t>
   </si>
 </sst>
 </file>
@@ -938,7 +1001,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1137,17 +1200,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1438,7 +1490,7 @@
     <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1481,82 +1533,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="46" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="45" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="45" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="45" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="45" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="44" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="45" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="45" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="45" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="45" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="45" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="45" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="45" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1699,13 +1748,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>480060</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
@@ -1963,757 +2012,1042 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282BB46E-CE8F-427D-94ED-5519DD8CAA9F}">
-  <dimension ref="B1:Q34"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B1:S33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="12"/>
-    <col min="2" max="2" width="24.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="12"/>
-    <col min="11" max="11" width="58.109375" style="12" customWidth="1"/>
-    <col min="12" max="12" width="3" style="12" customWidth="1"/>
-    <col min="13" max="15" width="8.88671875" style="12"/>
-    <col min="16" max="16" width="49.77734375" style="12" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="12"/>
+    <col min="2" max="2" width="12.21875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="12"/>
+    <col min="13" max="13" width="58.109375" style="12" customWidth="1"/>
+    <col min="14" max="14" width="3" style="12" customWidth="1"/>
+    <col min="15" max="17" width="8.88671875" style="12"/>
+    <col min="18" max="18" width="49.77734375" style="12" customWidth="1"/>
+    <col min="19" max="19" width="17.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C1" s="12"/>
-    </row>
-    <row r="2" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+    </row>
+    <row r="3" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-    </row>
-    <row r="3" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="F5" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="N5" s="26"/>
+    </row>
+    <row r="6" spans="2:19" ht="30.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="C6" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" s="28"/>
+      <c r="Q6" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" s="40"/>
+      <c r="S6" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" s="30"/>
+      <c r="Q7" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="R7" s="34"/>
+      <c r="S7" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" s="30"/>
+      <c r="Q8" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="R8" s="36"/>
+      <c r="S8" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F9" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="30"/>
+      <c r="Q9" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="R9" s="36"/>
+      <c r="S9" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" s="30"/>
+      <c r="Q10" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="R10" s="36"/>
+      <c r="S10" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" s="30"/>
+      <c r="Q11" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="R11" s="36"/>
+      <c r="S11" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="28.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" s="30"/>
+      <c r="Q12" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="R12" s="38"/>
+      <c r="S12" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="30" x14ac:dyDescent="0.3">
+      <c r="B13" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" s="42"/>
+    </row>
+    <row r="14" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="N14" s="42"/>
+    </row>
+    <row r="15" spans="2:19" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="N15" s="32"/>
+    </row>
+    <row r="16" spans="2:19" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" spans="2:11" ht="45" x14ac:dyDescent="0.3">
+      <c r="B18" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F22" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="J22" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="10" t="s">
+    <row r="23" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B23" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B25" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="10" t="s">
+      <c r="F25" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="L5" s="41"/>
-    </row>
-    <row r="6" spans="2:17" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="L6" s="43"/>
-      <c r="O6" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" s="27"/>
-      <c r="O7" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="L8" s="27"/>
-      <c r="O8" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9" s="27"/>
-      <c r="O9" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="L10" s="27"/>
-      <c r="O10" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="L11" s="27"/>
-      <c r="O11" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="L12" s="27"/>
-      <c r="O12" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="29"/>
-    </row>
-    <row r="14" spans="2:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="B14" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="L14" s="29"/>
-    </row>
-    <row r="15" spans="2:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="L15" s="31"/>
-    </row>
-    <row r="16" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="2:9" ht="45" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B19" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="30" x14ac:dyDescent="0.3">
-      <c r="B20" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B23" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B25" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.3">
-      <c r="B26" s="15" t="s">
-        <v>64</v>
+    </row>
+    <row r="26" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B26" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>100</v>
+        <v>144</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>135</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H26" s="10" t="s">
+      <c r="I26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B27" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>100</v>
+    <row r="27" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B27" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H27" s="10" t="s">
+      <c r="I27" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C28" s="12"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C29" s="12"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C30" s="12"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C31" s="12"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C32" s="12"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="12"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="12"/>
+    <row r="28" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B28" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B29" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B31" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B32" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B33" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="B3:J33" xr:uid="{282BB46E-CE8F-427D-94ED-5519DD8CAA9F}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="SP1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="19">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2748,12 +3082,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
@@ -2867,14 +3201,14 @@
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -2905,14 +3239,14 @@
       <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="2:17" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="48"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="47"/>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
@@ -3060,14 +3394,14 @@
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="48"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="47"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -3199,14 +3533,14 @@
       </c>
     </row>
     <row r="27" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="G27" s="46" t="s">
+      <c r="G27" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="48"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="47"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G28" s="8" t="s">
@@ -3329,39 +3663,39 @@
       </c>
     </row>
     <row r="34" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
     </row>
     <row r="35" spans="7:12" x14ac:dyDescent="0.25">
       <c r="L35" s="6"/>
     </row>
     <row r="36" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
     </row>
     <row r="41" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
     </row>
     <row r="48" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="44"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:E9" xr:uid="{07021E6F-6850-4E53-A46C-00614E60A9F2}">
@@ -3385,24 +3719,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="46e0ad8bcb937777a496f4378509b82b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3afd91b9dddacb5807afd727ccca0e2e" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -3623,25 +3939,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D895C161-5F30-4256-BAD3-309A58746C18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D61C0559-A3A8-404B-B3C9-59977EEF143B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C3BEF7D-0560-4D92-8503-510D68BBABDD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3658,4 +3974,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D61C0559-A3A8-404B-B3C9-59977EEF143B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D895C161-5F30-4256-BAD3-309A58746C18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Gerenciamento - TI/Backlog-Rodizio.xlsx
+++ b/Gerenciamento - TI/Backlog-Rodizio.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB108F3-D90C-40C0-BF95-7773A20A4674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD3E58E-243C-4004-8B9A-6F09C16C5260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BackLog!$B$3:$J$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Rodizio!$B$3:$E$9</definedName>
     <definedName name="DataDeInício">#REF!</definedName>
     <definedName name="InícioDaSemana">#REF!</definedName>
   </definedNames>
@@ -34,20 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="151">
-  <si>
-    <t>Anotações</t>
-  </si>
-  <si>
-    <t>Relatorio de grupo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="129">
   <si>
     <t>Eduardo</t>
   </si>
   <si>
-    <t>Erica</t>
-  </si>
-  <si>
     <t>Mariana</t>
   </si>
   <si>
@@ -61,63 +51,6 @@
   </si>
   <si>
     <t>Nome</t>
-  </si>
-  <si>
-    <t>Habilidade Forte</t>
-  </si>
-  <si>
-    <t>Apresentação, Desafio Tecnico</t>
-  </si>
-  <si>
-    <t>Desafio Tecnico, Liderança</t>
-  </si>
-  <si>
-    <t>Participação</t>
-  </si>
-  <si>
-    <t>Precisa participar mais e se envolver com projeto;</t>
-  </si>
-  <si>
-    <t>Precisa orquestrar mais democraticamente funções;</t>
-  </si>
-  <si>
-    <t>Precisa desenvolver lado tecnico e apresentação.</t>
-  </si>
-  <si>
-    <t>Precisa desenvolver lado tecnico e parte de liderança;</t>
-  </si>
-  <si>
-    <t>Precisa desenvolver lado tecnico e parte de apresentação;</t>
-  </si>
-  <si>
-    <t>Visão de negocios</t>
-  </si>
-  <si>
-    <t>Solução de problemas</t>
-  </si>
-  <si>
-    <t>Banco de dados</t>
-  </si>
-  <si>
-    <t>Integração com banco de dados, back-end</t>
-  </si>
-  <si>
-    <t>Back-end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erica </t>
-  </si>
-  <si>
-    <t>Lado tecnico</t>
-  </si>
-  <si>
-    <t>Gerenciamento</t>
-  </si>
-  <si>
-    <t>Orquestração</t>
-  </si>
-  <si>
-    <t>Desafio</t>
   </si>
   <si>
     <t>Erika</t>
@@ -1490,16 +1423,9 @@
     <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1527,9 +1453,6 @@
     <xf numFmtId="0" fontId="29" fillId="46" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1551,62 +1474,62 @@
     <xf numFmtId="0" fontId="28" fillId="46" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="45" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="45" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="45" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="45" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="45" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="45" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="43" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="45" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="45" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="45" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="45" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="45" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="45" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2015,1009 +1938,1009 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B1:S33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="12"/>
-    <col min="2" max="2" width="12.21875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="12" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="12"/>
-    <col min="13" max="13" width="58.109375" style="12" customWidth="1"/>
-    <col min="14" max="14" width="3" style="12" customWidth="1"/>
-    <col min="15" max="17" width="8.88671875" style="12"/>
-    <col min="18" max="18" width="49.77734375" style="12" customWidth="1"/>
-    <col min="19" max="19" width="17.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="2" max="2" width="12.21875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="7"/>
+    <col min="13" max="13" width="58.109375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="3" style="7" customWidth="1"/>
+    <col min="15" max="17" width="8.88671875" style="7"/>
+    <col min="18" max="18" width="49.77734375" style="7" customWidth="1"/>
+    <col min="19" max="19" width="17.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="E1" s="12"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+    </row>
+    <row r="3" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" s="33"/>
+    </row>
+    <row r="6" spans="2:19" ht="30.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="35"/>
+      <c r="Q6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" s="19"/>
+      <c r="S6" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-    </row>
-    <row r="3" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="N7" s="21"/>
+      <c r="Q7" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="R7" s="27"/>
+      <c r="S7" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="21"/>
+      <c r="Q8" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="R8" s="29"/>
+      <c r="S8" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="21"/>
+      <c r="Q9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="R9" s="29"/>
+      <c r="S9" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="21"/>
+      <c r="Q10" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="R10" s="29"/>
+      <c r="S10" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" s="21"/>
+      <c r="Q11" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="R11" s="29"/>
+      <c r="S11" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="28.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" s="21"/>
+      <c r="Q12" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12" s="31"/>
+      <c r="S12" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="30" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="23"/>
+    </row>
+    <row r="14" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="23"/>
+    </row>
+    <row r="15" spans="2:19" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="25"/>
+    </row>
+    <row r="16" spans="2:19" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="2:11" ht="45" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F23" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="14" t="s">
+      <c r="H25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="2:19" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="C26" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="N5" s="26"/>
-    </row>
-    <row r="6" spans="2:19" ht="30.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="N6" s="28"/>
-      <c r="Q6" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="R6" s="40"/>
-      <c r="S6" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="N7" s="30"/>
-      <c r="Q7" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="R7" s="34"/>
-      <c r="S7" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="N8" s="30"/>
-      <c r="Q8" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="R8" s="36"/>
-      <c r="S8" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="N9" s="30"/>
-      <c r="Q9" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="R9" s="36"/>
-      <c r="S9" s="21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="N10" s="30"/>
-      <c r="Q10" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="R10" s="36"/>
-      <c r="S10" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="N11" s="30"/>
-      <c r="Q11" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="R11" s="36"/>
-      <c r="S11" s="21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" ht="28.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="N12" s="30"/>
-      <c r="Q12" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="R12" s="38"/>
-      <c r="S12" s="22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" ht="30" x14ac:dyDescent="0.3">
-      <c r="B13" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="N13" s="42"/>
-    </row>
-    <row r="14" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="N14" s="42"/>
-    </row>
-    <row r="15" spans="2:19" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="I32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M15" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="N15" s="32"/>
-    </row>
-    <row r="16" spans="2:19" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="19"/>
-    </row>
-    <row r="18" spans="2:11" ht="45" x14ac:dyDescent="0.3">
-      <c r="B18" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B23" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B25" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B26" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B27" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B28" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B29" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B31" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B32" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B33" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>31</v>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3029,11 +2952,11 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="19">
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="B2:J2"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="Q8:R8"/>
@@ -3043,11 +2966,11 @@
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3057,668 +2980,511 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07021E6F-6850-4E53-A46C-00614E60A9F2}">
-  <dimension ref="B2:Q48"/>
+  <dimension ref="B2:G39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="s">
+    <row r="2" spans="2:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B2" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+    </row>
+    <row r="3" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B4" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B11" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B18" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="C24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="G11" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="2:17" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="G12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="2:17" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="G13" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="G14" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="G15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="G16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="G20" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G21" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G24" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G25" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="G27" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="47"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G28" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G29" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G30" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G31" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G32" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G33" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-    </row>
-    <row r="35" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L35" s="6"/>
-    </row>
-    <row r="36" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-    </row>
-    <row r="41" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-    </row>
-    <row r="48" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:E9" xr:uid="{07021E6F-6850-4E53-A46C-00614E60A9F2}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:E9">
-      <sortCondition ref="D3:D9"/>
-    </sortState>
-  </autoFilter>
-  <mergeCells count="9">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="G48:L48"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="G36:L36"/>
+  <mergeCells count="8">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B27:G27"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="46e0ad8bcb937777a496f4378509b82b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3afd91b9dddacb5807afd727ccca0e2e" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -3939,25 +3705,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D895C161-5F30-4256-BAD3-309A58746C18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D61C0559-A3A8-404B-B3C9-59977EEF143B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C3BEF7D-0560-4D92-8503-510D68BBABDD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3974,22 +3740,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D61C0559-A3A8-404B-B3C9-59977EEF143B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D895C161-5F30-4256-BAD3-309A58746C18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>